--- a/biology/Botanique/Valériane_dioïque/Valériane_dioïque.xlsx
+++ b/biology/Botanique/Valériane_dioïque/Valériane_dioïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane_dio%C3%AFque</t>
+          <t>Valériane_dioïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valeriana dioica
 La Valériane dioïque ou Valériane des marais (Valeriana dioica) est une plante herbacée vivace de la famille des Caprifoliacées (anciennement des Valérianacées).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane_dio%C3%AFque</t>
+          <t>Valériane_dioïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 10 à 40 cm de haut, ce qui lui vaut le nom de petite valériane (comparativement à la valériane officinale). Ses feuilles inférieures sont longuement pétiolées, leur limbe est entier, ovale, tandis que les feuilles caulinaires sont sessiles, pennatiséquées, le lobe terminal plus grand que les latéraux.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane_dio%C3%AFque</t>
+          <t>Valériane_dioïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme son nom l'indique, c'est une plante dioïque : les fleurs mâles et les fleurs femelles sont portées sur des pieds distincts, mais, rarement, elle peut présenter des fleurs hermaphrodites[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme son nom l'indique, c'est une plante dioïque : les fleurs mâles et les fleurs femelles sont portées sur des pieds distincts, mais, rarement, elle peut présenter des fleurs hermaphrodites.
 Elle fleurit d'avril à juin.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane_dio%C3%AFque</t>
+          <t>Valériane_dioïque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prairies humides.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Val%C3%A9riane_dio%C3%AFque</t>
+          <t>Valériane_dioïque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
